--- a/data/trans_orig/P40-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P40-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4360</v>
+        <v>4263</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001317147238453859</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007463813889993834</v>
+        <v>0.007297880607992061</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>8370</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3340</v>
+        <v>3397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15583</v>
+        <v>15656</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009075019691225813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003621671823440127</v>
+        <v>0.003683573085458415</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01689518033456124</v>
+        <v>0.01697470393474845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>9140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4384</v>
+        <v>4292</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16757</v>
+        <v>16430</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006066874243415411</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002910135723804204</v>
+        <v>0.002849214855192002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01112351342088619</v>
+        <v>0.0109065488172252</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>26792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17591</v>
+        <v>18670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37767</v>
+        <v>38074</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04586569610472144</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03011358384748988</v>
+        <v>0.03196148920139408</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06465361680285836</v>
+        <v>0.06517932635553467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>103</v>
@@ -836,19 +836,19 @@
         <v>105224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86997</v>
+        <v>85902</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126245</v>
+        <v>126094</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1140843638422524</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09432264151681773</v>
+        <v>0.09313590818342218</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1368757190922058</v>
+        <v>0.1367120829907362</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -857,19 +857,19 @@
         <v>132016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>111801</v>
+        <v>109717</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155124</v>
+        <v>153942</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08763230806798918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07421382286255977</v>
+        <v>0.07283010306735715</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1029714353409423</v>
+        <v>0.1021867288080623</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>135515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115366</v>
+        <v>116318</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156270</v>
+        <v>158365</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2319898978296725</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1974960462319416</v>
+        <v>0.1991270078766935</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2675204988459314</v>
+        <v>0.2711075983660206</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>266</v>
@@ -907,19 +907,19 @@
         <v>275799</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>248535</v>
+        <v>249268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>304816</v>
+        <v>305633</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.299023426301109</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2694631351137947</v>
+        <v>0.2702585139156657</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3304839368333011</v>
+        <v>0.3313694222254474</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>400</v>
@@ -928,19 +928,19 @@
         <v>411314</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>378889</v>
+        <v>378390</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>448697</v>
+        <v>446193</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2730309129220097</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2515070621035878</v>
+        <v>0.251175900694913</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2978456921739761</v>
+        <v>0.2961833902050467</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>327767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>304674</v>
+        <v>304068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>350968</v>
+        <v>350728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5611098998652648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5215769167905637</v>
+        <v>0.5205393209932893</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6008275773628302</v>
+        <v>0.6004169959775943</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>412</v>
@@ -978,19 +978,19 @@
         <v>432940</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>403138</v>
+        <v>404231</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>464351</v>
+        <v>463645</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4693969791105215</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4370851921356487</v>
+        <v>0.4382696947692315</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5034523820842964</v>
+        <v>0.5026877427367349</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>731</v>
@@ -999,19 +999,19 @@
         <v>760708</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>722731</v>
+        <v>719147</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>797887</v>
+        <v>800232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5049590235696568</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4797501696116098</v>
+        <v>0.4773711962703499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.529638963909469</v>
+        <v>0.5311951461542546</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>93297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76105</v>
+        <v>76762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>112223</v>
+        <v>112964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1597173589618874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1302861226377501</v>
+        <v>0.1314096457904914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1921157516108138</v>
+        <v>0.1933840660759236</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -1049,19 +1049,19 @@
         <v>100000</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81730</v>
+        <v>82550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>121835</v>
+        <v>120175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1084202110548913</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0886125724842306</v>
+        <v>0.08950146532020646</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1320944732820141</v>
+        <v>0.1302945005119212</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>187</v>
@@ -1070,19 +1070,19 @@
         <v>193297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167752</v>
+        <v>167245</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>220758</v>
+        <v>220600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1283108811969289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.111354268740604</v>
+        <v>0.1110178228609471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1465397180446315</v>
+        <v>0.1464346085556741</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>4442</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12593</v>
+        <v>11553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004124966177749884</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001597295116655545</v>
+        <v>0.001578133555765207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01169355850500658</v>
+        <v>0.01072834727039571</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1195,19 +1195,19 @@
         <v>2841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7599</v>
+        <v>8166</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0026908079133354</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0008712247869635649</v>
+        <v>0.000870205078482812</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00719731656484712</v>
+        <v>0.007734752625906862</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1216,19 +1216,19 @@
         <v>7283</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3553</v>
+        <v>3548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14513</v>
+        <v>14530</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00341499675899781</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001666157945126614</v>
+        <v>0.001663751138088258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006804973464792794</v>
+        <v>0.006812966919677683</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>15600</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9685</v>
+        <v>9327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26006</v>
+        <v>25042</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01448607731505226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008993264796406986</v>
+        <v>0.008660564351372491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02414945353101002</v>
+        <v>0.02325352667976075</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1266,19 +1266,19 @@
         <v>36991</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25088</v>
+        <v>25704</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50316</v>
+        <v>49473</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03503788460725153</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02376299088659389</v>
+        <v>0.02434635414792063</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04765891758862863</v>
+        <v>0.04686026263371426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -1287,19 +1287,19 @@
         <v>52591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39773</v>
+        <v>39701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>67727</v>
+        <v>67425</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02466009718412466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01864965298713299</v>
+        <v>0.01861564250949137</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03175727940302402</v>
+        <v>0.03161562420162191</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>148668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>127096</v>
+        <v>126620</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>172103</v>
+        <v>174270</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1380525454032802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1180207658817443</v>
+        <v>0.1175791720823631</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1598139374744474</v>
+        <v>0.1618265741936755</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>232</v>
@@ -1337,19 +1337,19 @@
         <v>240626</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>213945</v>
+        <v>214784</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>265536</v>
+        <v>267693</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2279196545574885</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2026473860554054</v>
+        <v>0.2034423714722957</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2515137215859994</v>
+        <v>0.2535571726347358</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>379</v>
@@ -1358,19 +1358,19 @@
         <v>389294</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>354044</v>
+        <v>352983</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>426502</v>
+        <v>425918</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1825405916909686</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1660118646869492</v>
+        <v>0.165514139696799</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1999874548833513</v>
+        <v>0.1997134340637816</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>697892</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>663912</v>
+        <v>663542</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>728291</v>
+        <v>730821</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6480591244664052</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6165060224916173</v>
+        <v>0.6161622495954515</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6762881426918448</v>
+        <v>0.6786374467998167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>606</v>
@@ -1408,19 +1408,19 @@
         <v>620065</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>592109</v>
+        <v>586300</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>654458</v>
+        <v>649544</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5873217722864049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5608419563259606</v>
+        <v>0.5553394557977051</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6198984021274768</v>
+        <v>0.6152444099681241</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1289</v>
@@ -1429,19 +1429,19 @@
         <v>1317956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1273490</v>
+        <v>1272231</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1361601</v>
+        <v>1364327</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6179915484577142</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5971412757350755</v>
+        <v>0.5965512653903777</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6384565606123704</v>
+        <v>0.6397348536558083</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>210293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185722</v>
+        <v>186632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>237519</v>
+        <v>239846</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1952772866375124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1724609831995643</v>
+        <v>0.1733059306740079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2205587453469728</v>
+        <v>0.2227199317695984</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -1479,19 +1479,19 @@
         <v>155227</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132651</v>
+        <v>134574</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>180618</v>
+        <v>181435</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1470298806355197</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1256465676463995</v>
+        <v>0.1274681163935455</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1710802020901729</v>
+        <v>0.1718538840411107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>352</v>
@@ -1500,19 +1500,19 @@
         <v>365520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>333702</v>
+        <v>329893</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>405384</v>
+        <v>400483</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1713927659081947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1564733762655567</v>
+        <v>0.1546872528048958</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1900851175072499</v>
+        <v>0.1877872479271045</v>
       </c>
     </row>
     <row r="15">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5211</v>
+        <v>4889</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0008201105873939797</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004646170268242678</v>
+        <v>0.004358655308344798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1625,19 +1625,19 @@
         <v>3999</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1023</v>
+        <v>980</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9918</v>
+        <v>10156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004023479472542528</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001028786293880421</v>
+        <v>0.0009862269341968095</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009978338784711603</v>
+        <v>0.01021759832639919</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1646,19 +1646,19 @@
         <v>4919</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1924</v>
+        <v>1841</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11748</v>
+        <v>10493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002325146849402681</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0009093209231230492</v>
+        <v>0.0008704304777419554</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005553273840042975</v>
+        <v>0.004960110076541031</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>17911</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10866</v>
+        <v>10457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28069</v>
+        <v>29017</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01596883863286258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009688187471833696</v>
+        <v>0.009323075801675948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02502600238100344</v>
+        <v>0.02587089904688397</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1696,19 +1696,19 @@
         <v>24913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17445</v>
+        <v>17341</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36508</v>
+        <v>37401</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02506471385347881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01755138376444681</v>
+        <v>0.01744646676887414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03673094270543839</v>
+        <v>0.03762925446057392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1717,19 +1717,19 @@
         <v>42823</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29889</v>
+        <v>31491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57842</v>
+        <v>57437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02024234647181351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01412821841336923</v>
+        <v>0.01488539707673676</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02734145502318172</v>
+        <v>0.02715007434136971</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>114496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95826</v>
+        <v>96225</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135339</v>
+        <v>133720</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1020834830177897</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08543695443732031</v>
+        <v>0.08579309961167922</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1206665851352061</v>
+        <v>0.1192230042663706</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>167</v>
@@ -1767,19 +1767,19 @@
         <v>171068</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146091</v>
+        <v>145562</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>194809</v>
+        <v>194103</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1721106673447627</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1469812764707883</v>
+        <v>0.1464499038536232</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1959965364228652</v>
+        <v>0.1952861438853124</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>283</v>
@@ -1788,19 +1788,19 @@
         <v>285564</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>254704</v>
+        <v>255347</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>318954</v>
+        <v>320079</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1349842994760773</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1203972241849473</v>
+        <v>0.1207007360084252</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1507676003145858</v>
+        <v>0.1512992976841691</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>765712</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>734185</v>
+        <v>734540</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>795925</v>
+        <v>796680</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.682699473456076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6545905309170235</v>
+        <v>0.654906925967131</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7096370989503518</v>
+        <v>0.7103108502250411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>647</v>
@@ -1838,19 +1838,19 @@
         <v>650085</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>619306</v>
+        <v>617366</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>679045</v>
+        <v>677143</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6540485677771064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6230822859605822</v>
+        <v>0.6211297654845974</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6831851409410746</v>
+        <v>0.6812713776740176</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1396</v>
@@ -1859,19 +1859,19 @@
         <v>1415797</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1369304</v>
+        <v>1371692</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1453039</v>
+        <v>1460389</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6692384411702983</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6472614439323086</v>
+        <v>0.6483905399703476</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6868427486792709</v>
+        <v>0.6903171058695363</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>222556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197465</v>
+        <v>198711</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249835</v>
+        <v>252357</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1984280943058778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1760571246341147</v>
+        <v>0.1771684664267961</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2227501271306223</v>
+        <v>0.2249984170019375</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1909,19 +1909,19 @@
         <v>143875</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121433</v>
+        <v>121350</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>167681</v>
+        <v>166687</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1447525715521095</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1221737033633542</v>
+        <v>0.122089975729897</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1687038080527056</v>
+        <v>0.1677035789578095</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>360</v>
@@ -1930,19 +1930,19 @@
         <v>366431</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>333628</v>
+        <v>330940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>404466</v>
+        <v>402730</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1732097660324082</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1577038353296701</v>
+        <v>0.1564334368239587</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1911885700290406</v>
+        <v>0.1903678613190418</v>
       </c>
     </row>
     <row r="21">
@@ -2047,19 +2047,19 @@
         <v>3603</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11225</v>
+        <v>11485</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01055970442479649</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002887383621139661</v>
+        <v>0.002882365059823673</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03290341075944001</v>
+        <v>0.03366430891438799</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2068,19 +2068,19 @@
         <v>3603</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10375</v>
+        <v>10057</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004574772886664654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001253911370778429</v>
+        <v>0.001247379335487593</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01317558372016723</v>
+        <v>0.01277071458967624</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>6255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2395</v>
+        <v>2029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14264</v>
+        <v>12498</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01401461722047463</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005365238828094502</v>
+        <v>0.004545174521246179</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03195939002317844</v>
+        <v>0.02800142049905415</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2118,19 +2118,19 @@
         <v>3182</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8876</v>
+        <v>8352</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009328166720016164</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002972814590379864</v>
+        <v>0.002935625193875288</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02601794150317256</v>
+        <v>0.02448095410587409</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -2139,19 +2139,19 @@
         <v>9437</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4173</v>
+        <v>4459</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17370</v>
+        <v>17875</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01198430975904144</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005298587719674983</v>
+        <v>0.005662622961602866</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02205726344623535</v>
+        <v>0.02269877647160113</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>39238</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27870</v>
+        <v>27671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52245</v>
+        <v>51484</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08791562988615399</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06244327415901049</v>
+        <v>0.06199845694569363</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1170583984485335</v>
+        <v>0.1153527067406705</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -2189,19 +2189,19 @@
         <v>56524</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42941</v>
+        <v>43849</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71856</v>
+        <v>71455</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1656823509678478</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1258684193335223</v>
+        <v>0.1285294748519614</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2106238755861565</v>
+        <v>0.2094485078126827</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>95</v>
@@ -2210,19 +2210,19 @@
         <v>95762</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>77412</v>
+        <v>78515</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>115365</v>
+        <v>114685</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1216064485660719</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09830338844144954</v>
+        <v>0.09970498872696089</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.146499467902037</v>
+        <v>0.1456356978949681</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>285885</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>264785</v>
+        <v>266656</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>306869</v>
+        <v>305841</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6405385182012223</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5932631219140796</v>
+        <v>0.5974569325134975</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6875563629253978</v>
+        <v>0.6852511787506963</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>212</v>
@@ -2260,19 +2260,19 @@
         <v>211560</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>192859</v>
+        <v>193150</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>229637</v>
+        <v>228885</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6201224964598807</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5653079969095941</v>
+        <v>0.5661608262035553</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6731094815317618</v>
+        <v>0.6709058055091787</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>492</v>
@@ -2281,19 +2281,19 @@
         <v>497444</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>472014</v>
+        <v>467796</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>526469</v>
+        <v>524158</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6316937003011563</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5994006143320105</v>
+        <v>0.5940441853471512</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6685516156594548</v>
+        <v>0.6656166681579251</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>114941</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>95494</v>
+        <v>96333</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>136425</v>
+        <v>134541</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2575312346921491</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2139600290577115</v>
+        <v>0.215838808721978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3056667992420876</v>
+        <v>0.3014467808083529</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -2331,19 +2331,19 @@
         <v>66289</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>53631</v>
+        <v>52904</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>81876</v>
+        <v>81646</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1943072814274589</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1572021226417749</v>
+        <v>0.1550707612551546</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2399936034272252</v>
+        <v>0.2393190227427428</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>175</v>
@@ -2352,19 +2352,19 @@
         <v>181231</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>159578</v>
+        <v>156229</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>206297</v>
+        <v>206327</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2301407684870657</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2026447191552163</v>
+        <v>0.1983923922912631</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2619719378780138</v>
+        <v>0.2620104843862033</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>6131</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2516</v>
+        <v>2485</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12790</v>
+        <v>13444</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001898879378597676</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0007791329457885751</v>
+        <v>0.0007695333596840016</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.003961171549732478</v>
+        <v>0.004163600043685665</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>18</v>
@@ -2477,19 +2477,19 @@
         <v>18813</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11531</v>
+        <v>11966</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29710</v>
+        <v>29833</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005678119458949246</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003480249952752219</v>
+        <v>0.003611495780487668</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.00896724021446401</v>
+        <v>0.00900420767456709</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2498,19 +2498,19 @@
         <v>24944</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15620</v>
+        <v>16226</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37684</v>
+        <v>37208</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00381282869863315</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00238757481227201</v>
+        <v>0.00248017773222203</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005760217366825055</v>
+        <v>0.005687448861969435</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>66558</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51228</v>
+        <v>53152</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>83581</v>
+        <v>84580</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02061276676142449</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01586537493867953</v>
+        <v>0.01646113307060872</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02588482914495262</v>
+        <v>0.02619442511614239</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>166</v>
@@ -2548,19 +2548,19 @@
         <v>170310</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>145292</v>
+        <v>146651</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>198441</v>
+        <v>197284</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05140384284835245</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04385257208115736</v>
+        <v>0.04426286972911088</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05989444149684334</v>
+        <v>0.05954523492142532</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>235</v>
@@ -2569,19 +2569,19 @@
         <v>236868</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>207985</v>
+        <v>208671</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>267394</v>
+        <v>269535</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0362065257941277</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03179158607057591</v>
+        <v>0.03189641616580158</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04087259660109036</v>
+        <v>0.04119981062493911</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>437918</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>397830</v>
+        <v>401484</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>476741</v>
+        <v>477331</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1356223249864333</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1232071198853402</v>
+        <v>0.1243389363219217</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1476457909898875</v>
+        <v>0.1478284742429736</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>721</v>
@@ -2619,19 +2619,19 @@
         <v>744017</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>697603</v>
+        <v>692372</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>785483</v>
+        <v>793302</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2245627094720235</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2105539211074993</v>
+        <v>0.2089749756289143</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2370781212414251</v>
+        <v>0.239438151893153</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1157</v>
@@ -2640,19 +2640,19 @@
         <v>1181934</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1119485</v>
+        <v>1119757</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1244232</v>
+        <v>1245671</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.180665080881966</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.171119389693158</v>
+        <v>0.1711609646124668</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1901875974203548</v>
+        <v>0.1904075424225408</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>2077255</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2025300</v>
+        <v>2022266</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2133810</v>
+        <v>2130925</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6433223486069357</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6272320322479634</v>
+        <v>0.6262923297752268</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6608374456174153</v>
+        <v>0.6599437751054519</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1877</v>
@@ -2690,19 +2690,19 @@
         <v>1914650</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1856072</v>
+        <v>1857777</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1972063</v>
+        <v>1967702</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5778887530282518</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5602083648660822</v>
+        <v>0.5607230341068932</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5952174990201238</v>
+        <v>0.5939011287039448</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3908</v>
@@ -2711,19 +2711,19 @@
         <v>3991905</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3913941</v>
+        <v>3906202</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4071396</v>
+        <v>4068289</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6101843147422948</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5982671389929476</v>
+        <v>0.5970841747077237</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6223349615564755</v>
+        <v>0.6218599526525193</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>641087</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>595255</v>
+        <v>595275</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>684993</v>
+        <v>688742</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1985436802666087</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.184349469904431</v>
+        <v>0.1843557354088604</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.212141207572138</v>
+        <v>0.2133021563620905</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>450</v>
@@ -2761,19 +2761,19 @@
         <v>465391</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>422058</v>
+        <v>428187</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>505259</v>
+        <v>508028</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.140466575192423</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1273876628741271</v>
+        <v>0.1292375182368728</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1524997993202571</v>
+        <v>0.1533354825206245</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1074</v>
@@ -2782,19 +2782,19 @@
         <v>1106479</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1052002</v>
+        <v>1043785</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1175550</v>
+        <v>1170518</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1691312498829783</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1608042548501833</v>
+        <v>0.1595482474501508</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1796892302934917</v>
+        <v>0.1789199927005765</v>
       </c>
     </row>
     <row r="33">
@@ -3126,19 +3126,19 @@
         <v>3138</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9392</v>
+        <v>8251</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00306229262341562</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0009120132980788097</v>
+        <v>0.0009069245275796943</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009164716440404862</v>
+        <v>0.008051521442421647</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -3147,19 +3147,19 @@
         <v>14927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8336</v>
+        <v>9042</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24967</v>
+        <v>24458</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01341490551776518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007491250624200145</v>
+        <v>0.008125501094537647</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02243741233574561</v>
+        <v>0.02198007179351899</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -3168,19 +3168,19 @@
         <v>18066</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10918</v>
+        <v>11283</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28494</v>
+        <v>29454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008451637358102296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005107869761370134</v>
+        <v>0.005278309181643218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01333039645396052</v>
+        <v>0.01377936415516883</v>
       </c>
     </row>
     <row r="5">
@@ -3197,19 +3197,19 @@
         <v>39154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28373</v>
+        <v>27758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53810</v>
+        <v>52765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03820776215322545</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02768718383709539</v>
+        <v>0.02708696077380444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05250945770667973</v>
+        <v>0.05148949728468758</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -3218,19 +3218,19 @@
         <v>68023</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52961</v>
+        <v>54325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86156</v>
+        <v>88688</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06113051028113138</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04759474795479889</v>
+        <v>0.0488202307953411</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0774266953539083</v>
+        <v>0.07970188583627624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>98</v>
@@ -3239,19 +3239,19 @@
         <v>107177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87502</v>
+        <v>86940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>129617</v>
+        <v>130757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05014084544228631</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04093632544372168</v>
+        <v>0.04067335411396732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0606388654603076</v>
+        <v>0.06117206745280829</v>
       </c>
     </row>
     <row r="6">
@@ -3268,19 +3268,19 @@
         <v>166671</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>144410</v>
+        <v>142521</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>193702</v>
+        <v>192129</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1626417392714959</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1409184574908754</v>
+        <v>0.1390754169722251</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1890188147517575</v>
+        <v>0.1874842445202186</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>287</v>
@@ -3289,19 +3289,19 @@
         <v>312047</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>281643</v>
+        <v>283087</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>342218</v>
+        <v>343359</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2804298300181893</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2531060685088273</v>
+        <v>0.2544035464873454</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3075434773462921</v>
+        <v>0.308568585361521</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>440</v>
@@ -3310,19 +3310,19 @@
         <v>478719</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>438594</v>
+        <v>441049</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>520940</v>
+        <v>522342</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.223959653227398</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2051879656780579</v>
+        <v>0.2063364947203721</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2437120023369444</v>
+        <v>0.2443677887981909</v>
       </c>
     </row>
     <row r="7">
@@ -3339,19 +3339,19 @@
         <v>630997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>600276</v>
+        <v>596110</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>662276</v>
+        <v>663349</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6157422635363552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5857642463257741</v>
+        <v>0.5816992778300414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.64626515726892</v>
+        <v>0.6473125100436466</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>542</v>
@@ -3360,19 +3360,19 @@
         <v>591885</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>558303</v>
+        <v>558788</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>625385</v>
+        <v>625526</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5319133245610758</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5017339605176671</v>
+        <v>0.5021694229728384</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5620191973805526</v>
+        <v>0.5621458799428274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1130</v>
@@ -3381,19 +3381,19 @@
         <v>1222882</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1174213</v>
+        <v>1175299</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1272445</v>
+        <v>1271626</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5721027441714057</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5493337116416682</v>
+        <v>0.5498419978522666</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5952896921085381</v>
+        <v>0.5949066098916325</v>
       </c>
     </row>
     <row r="8">
@@ -3410,19 +3410,19 @@
         <v>184814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>162001</v>
+        <v>161600</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>210243</v>
+        <v>211562</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1803459424155078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1580846394252985</v>
+        <v>0.1576933249335105</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2051604419275787</v>
+        <v>0.2064479358957921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>118</v>
@@ -3431,19 +3431,19 @@
         <v>125864</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>103631</v>
+        <v>104992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>148396</v>
+        <v>148436</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1131114296218383</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09313047055678804</v>
+        <v>0.09435425764061194</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1333602642806131</v>
+        <v>0.133396147435301</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>298</v>
@@ -3452,19 +3452,19 @@
         <v>310678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>278788</v>
+        <v>278832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>344464</v>
+        <v>345623</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1453451198008076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1304256501668406</v>
+        <v>0.1304465798988788</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1611508681754444</v>
+        <v>0.1616931295047634</v>
       </c>
     </row>
     <row r="9">
@@ -3556,19 +3556,19 @@
         <v>5313</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2054</v>
+        <v>2085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12659</v>
+        <v>12160</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0055152665449168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002131718056218557</v>
+        <v>0.00216393921553165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01313951781680664</v>
+        <v>0.01262242058468797</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3577,19 +3577,19 @@
         <v>9146</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4260</v>
+        <v>4069</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18524</v>
+        <v>17505</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008396566499494062</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003910953581427084</v>
+        <v>0.003736064148341423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01700602247011208</v>
+        <v>0.01607071435557998</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3598,19 +3598,19 @@
         <v>14459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8185</v>
+        <v>7397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24295</v>
+        <v>24657</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007044232466661329</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003987650864071247</v>
+        <v>0.003603573432362398</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01183622769916819</v>
+        <v>0.01201254434942114</v>
       </c>
     </row>
     <row r="11">
@@ -3627,19 +3627,19 @@
         <v>18162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9679</v>
+        <v>9749</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30329</v>
+        <v>30236</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01885161372953603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01004639081696955</v>
+        <v>0.01011888873642135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03148145221447572</v>
+        <v>0.03138414692956719</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -3648,19 +3648,19 @@
         <v>50826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37191</v>
+        <v>37756</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66816</v>
+        <v>65722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04666235889341811</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0341443486649878</v>
+        <v>0.03466286658606904</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06134257504243182</v>
+        <v>0.06033781507383715</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -3669,19 +3669,19 @@
         <v>68988</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53123</v>
+        <v>52980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88613</v>
+        <v>88422</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03360942523275937</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02588063368235568</v>
+        <v>0.02581067574249748</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04317032062240506</v>
+        <v>0.04307734119108318</v>
       </c>
     </row>
     <row r="12">
@@ -3698,19 +3698,19 @@
         <v>136120</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115175</v>
+        <v>118260</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>159361</v>
+        <v>162932</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1412905766034182</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1195505056754667</v>
+        <v>0.1227520098225355</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1654147823387356</v>
+        <v>0.1691210092733644</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>224</v>
@@ -3719,19 +3719,19 @@
         <v>239905</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>212344</v>
+        <v>212847</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>270501</v>
+        <v>269299</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2202506681112581</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1949478287896027</v>
+        <v>0.1954097669370014</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2483404531144109</v>
+        <v>0.2472372345295691</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>348</v>
@@ -3740,19 +3740,19 @@
         <v>376024</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>339566</v>
+        <v>341896</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>412551</v>
+        <v>411475</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1831908615430436</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1654295065158124</v>
+        <v>0.1665645549809771</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.200985900866859</v>
+        <v>0.2004616859822513</v>
       </c>
     </row>
     <row r="13">
@@ -3769,19 +3769,19 @@
         <v>596998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>566738</v>
+        <v>566111</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>626061</v>
+        <v>629132</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6196773136352364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5882677026439327</v>
+        <v>0.587616365300748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6498438099384579</v>
+        <v>0.6530317893789831</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>610</v>
@@ -3790,19 +3790,19 @@
         <v>655546</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>618813</v>
+        <v>622087</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>686981</v>
+        <v>689402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6018409626975957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5681179507309148</v>
+        <v>0.5711233818428144</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6307014765424621</v>
+        <v>0.632923425948784</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1177</v>
@@ -3811,19 +3811,19 @@
         <v>1252543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1209573</v>
+        <v>1204302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1301791</v>
+        <v>1296382</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.610212428624356</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5892781735135987</v>
+        <v>0.5867100616884026</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6342050208840493</v>
+        <v>0.6315695966581819</v>
       </c>
     </row>
     <row r="14">
@@ -3840,19 +3840,19 @@
         <v>206809</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183626</v>
+        <v>180411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>234974</v>
+        <v>233125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2146652294868926</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1906021222311343</v>
+        <v>0.1872645381841808</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2439002971922468</v>
+        <v>0.2419812892247689</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -3861,19 +3861,19 @@
         <v>133812</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112708</v>
+        <v>112791</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156972</v>
+        <v>158075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.122849443798234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1034749972412283</v>
+        <v>0.1035505532033056</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1441127177527995</v>
+        <v>0.1451247661949746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>328</v>
@@ -3882,19 +3882,19 @@
         <v>340621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>309964</v>
+        <v>307155</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>376056</v>
+        <v>377531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1659430521331798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1510077800092329</v>
+        <v>0.1496394535675476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1832066162710987</v>
+        <v>0.1839250371835545</v>
       </c>
     </row>
     <row r="15">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4688</v>
+        <v>3855</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001067969601382824</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00534354321366271</v>
+        <v>0.004393517493914392</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -4007,19 +4007,19 @@
         <v>4946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1864</v>
+        <v>1846</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11014</v>
+        <v>12773</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005693148648414275</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002145486599707679</v>
+        <v>0.002124567028143645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01267831315012379</v>
+        <v>0.01470385565288101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4028,19 +4028,19 @@
         <v>5883</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12163</v>
+        <v>12151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003369088013208362</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001139182598962905</v>
+        <v>0.001141198266090667</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006965702428539632</v>
+        <v>0.006959167865871483</v>
       </c>
     </row>
     <row r="17">
@@ -4057,19 +4057,19 @@
         <v>17500</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9383</v>
+        <v>10443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26673</v>
+        <v>27196</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01994624810461058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01069381650548483</v>
+        <v>0.01190220200202678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03040130003845554</v>
+        <v>0.03099665115903492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -4078,19 +4078,19 @@
         <v>30390</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19704</v>
+        <v>20521</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42971</v>
+        <v>43448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03498292571268097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02268150514874497</v>
+        <v>0.02362248571114101</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0494643790972068</v>
+        <v>0.05001455459101343</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -4099,19 +4099,19 @@
         <v>47891</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34890</v>
+        <v>35131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62786</v>
+        <v>63567</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02742729377760424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01998180607087752</v>
+        <v>0.02011982734477509</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03595821900610597</v>
+        <v>0.03640544001980985</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>124765</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>104151</v>
+        <v>103783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>149705</v>
+        <v>149630</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1422020739220569</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1187065987266884</v>
+        <v>0.118287669842608</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1706274202320799</v>
+        <v>0.1705419891132025</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>128</v>
@@ -4149,19 +4149,19 @@
         <v>138168</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116883</v>
+        <v>115693</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>161191</v>
+        <v>161349</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1590486841132992</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1345464475355801</v>
+        <v>0.1331773904830642</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1855512060265815</v>
+        <v>0.1857329870447849</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>237</v>
@@ -4170,19 +4170,19 @@
         <v>262933</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>232894</v>
+        <v>233785</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>292936</v>
+        <v>293602</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.150583596992563</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1333798892519977</v>
+        <v>0.1338903436278417</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.167766385670034</v>
+        <v>0.1681479459649882</v>
       </c>
     </row>
     <row r="19">
@@ -4199,19 +4199,19 @@
         <v>526729</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>496510</v>
+        <v>497196</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>554936</v>
+        <v>556191</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6003447971796629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5659015757828566</v>
+        <v>0.5666834738348927</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6324939355921143</v>
+        <v>0.6339234733013992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>547</v>
@@ -4220,19 +4220,19 @@
         <v>582492</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>553642</v>
+        <v>552484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>610337</v>
+        <v>609176</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6705197040979933</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6373096857292322</v>
+        <v>0.6359768561462169</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7025732418927804</v>
+        <v>0.7012363283755392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1045</v>
@@ -4241,19 +4241,19 @@
         <v>1109221</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1062342</v>
+        <v>1067349</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1147140</v>
+        <v>1151612</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6352582067397871</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6084107838312004</v>
+        <v>0.6112782002316437</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6569747960066793</v>
+        <v>0.6595359470414774</v>
       </c>
     </row>
     <row r="20">
@@ -4270,19 +4270,19 @@
         <v>207446</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181290</v>
+        <v>181859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233403</v>
+        <v>234182</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2364389111922868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2066273578504758</v>
+        <v>0.2072753204367362</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2660227624973159</v>
+        <v>0.2669117148756267</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>107</v>
@@ -4291,19 +4291,19 @@
         <v>112721</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>95388</v>
+        <v>94447</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>133716</v>
+        <v>133590</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1297555374276121</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1098037743876058</v>
+        <v>0.1087198415054216</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1539234267987193</v>
+        <v>0.153778713375785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>304</v>
@@ -4312,19 +4312,19 @@
         <v>320167</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>286306</v>
+        <v>287650</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>354631</v>
+        <v>355324</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1833618144768374</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1639693819943636</v>
+        <v>0.164738946435194</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2030996256300285</v>
+        <v>0.2034967059240652</v>
       </c>
     </row>
     <row r="21">
@@ -4463,19 +4463,19 @@
         <v>4238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10475</v>
+        <v>9896</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008489170236761125</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002094820112064898</v>
+        <v>0.002116222874707105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02098287183828034</v>
+        <v>0.01982210588222851</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -4484,19 +4484,19 @@
         <v>11562</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6288</v>
+        <v>5403</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20029</v>
+        <v>18933</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0257600331862293</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01400870464874744</v>
+        <v>0.01203735387212966</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04462313691228734</v>
+        <v>0.04218237264083358</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -4505,19 +4505,19 @@
         <v>15800</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9303</v>
+        <v>8751</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24796</v>
+        <v>24765</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01666557447663078</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009812434235135583</v>
+        <v>0.009229918705417667</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02615371394587306</v>
+        <v>0.0261210509496381</v>
       </c>
     </row>
     <row r="24">
@@ -4534,19 +4534,19 @@
         <v>53212</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40556</v>
+        <v>39560</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67935</v>
+        <v>67709</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1065873658036809</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08123593765975483</v>
+        <v>0.07923999708586545</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.136078059662402</v>
+        <v>0.1356253960696897</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -4555,19 +4555,19 @@
         <v>68931</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54450</v>
+        <v>54082</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86238</v>
+        <v>85322</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1535761743555741</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1213130692108836</v>
+        <v>0.1204928919300473</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1921337609914325</v>
+        <v>0.1900929531294006</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>113</v>
@@ -4576,19 +4576,19 @@
         <v>122144</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>100606</v>
+        <v>103255</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>144886</v>
+        <v>143156</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1288328954332212</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1061154623426932</v>
+        <v>0.108909088552418</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1528206227819139</v>
+        <v>0.1509952629405552</v>
       </c>
     </row>
     <row r="25">
@@ -4605,19 +4605,19 @@
         <v>321268</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>297355</v>
+        <v>296521</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>343993</v>
+        <v>343842</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6435172050541234</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5956171463756764</v>
+        <v>0.5939479003365545</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6890360778663333</v>
+        <v>0.6887339646546852</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>261</v>
@@ -4626,19 +4626,19 @@
         <v>286413</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>264842</v>
+        <v>265033</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>306768</v>
+        <v>309449</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6381162228850109</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5900568694115034</v>
+        <v>0.5904818580606813</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.683465296738629</v>
+        <v>0.6894387929569072</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>556</v>
@@ -4647,19 +4647,19 @@
         <v>607682</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>577325</v>
+        <v>570227</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>638852</v>
+        <v>635459</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6409602619739658</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6089411046327122</v>
+        <v>0.6014541586049269</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6738375104005209</v>
+        <v>0.6702589391240856</v>
       </c>
     </row>
     <row r="26">
@@ -4676,19 +4676,19 @@
         <v>120519</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>99286</v>
+        <v>99013</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>141609</v>
+        <v>141228</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2414062589054347</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.198874952523986</v>
+        <v>0.1983292242912228</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2836508876489728</v>
+        <v>0.2828874268929142</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -4697,19 +4697,19 @@
         <v>81935</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>66406</v>
+        <v>64015</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>100402</v>
+        <v>99378</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1825475695731856</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1479500837472063</v>
+        <v>0.14262184842716</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2236901227618372</v>
+        <v>0.2214095634658741</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>181</v>
@@ -4718,19 +4718,19 @@
         <v>202454</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>175183</v>
+        <v>178106</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>230916</v>
+        <v>231320</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2135412681161822</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1847762505046903</v>
+        <v>0.1878598688015756</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2435615839660958</v>
+        <v>0.2439873961551006</v>
       </c>
     </row>
     <row r="27">
@@ -4822,19 +4822,19 @@
         <v>9389</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4984</v>
+        <v>4316</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17656</v>
+        <v>17160</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002790243239898122</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00148119635193261</v>
+        <v>0.001282772040293818</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005247272308541895</v>
+        <v>0.005099823044980277</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -4843,19 +4843,19 @@
         <v>29019</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18925</v>
+        <v>19331</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41262</v>
+        <v>42564</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008245099973446033</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005377068990230427</v>
+        <v>0.005492346791586232</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01172361151134225</v>
+        <v>0.01209372095008107</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -4864,19 +4864,19 @@
         <v>38408</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>26432</v>
+        <v>26346</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>52378</v>
+        <v>53404</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005578979381182405</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003839428065150972</v>
+        <v>0.003826957038014214</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00760822516010339</v>
+        <v>0.007757376342798071</v>
       </c>
     </row>
     <row r="29">
@@ -4893,19 +4893,19 @@
         <v>79055</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>60723</v>
+        <v>62091</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>99618</v>
+        <v>99539</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02349462425204436</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01804663359053005</v>
+        <v>0.01845314439383789</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02960598502212533</v>
+        <v>0.02958247700594302</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>148</v>
@@ -4914,19 +4914,19 @@
         <v>160801</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>137175</v>
+        <v>134354</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>187603</v>
+        <v>185760</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0456882079263512</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03897538073223544</v>
+        <v>0.03817376674101852</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05330324584501856</v>
+        <v>0.05277972973312098</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>218</v>
@@ -4935,19 +4935,19 @@
         <v>239856</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>207947</v>
+        <v>207723</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>270649</v>
+        <v>273252</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03484085237871799</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03020581778862449</v>
+        <v>0.03017322924134636</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03931376599167766</v>
+        <v>0.03969187489215949</v>
       </c>
     </row>
     <row r="30">
@@ -4964,19 +4964,19 @@
         <v>480768</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>436466</v>
+        <v>442543</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>529648</v>
+        <v>530282</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1428819617700192</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1297154832033525</v>
+        <v>0.1315215708079024</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1574089454144043</v>
+        <v>0.1575974014323416</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>703</v>
@@ -4985,19 +4985,19 @@
         <v>759052</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>715466</v>
+        <v>708618</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>812886</v>
+        <v>812517</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2156678826815395</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.203284024015174</v>
+        <v>0.2013382927769385</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2309637547235756</v>
+        <v>0.2308589355790263</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1138</v>
@@ -5006,19 +5006,19 @@
         <v>1239820</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1176415</v>
+        <v>1174705</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1302010</v>
+        <v>1306461</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1800929717263879</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1708828913817912</v>
+        <v>0.170634617915767</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1891266059716574</v>
+        <v>0.1897731213698966</v>
       </c>
     </row>
     <row r="31">
@@ -5035,19 +5035,19 @@
         <v>2075993</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2019365</v>
+        <v>2015005</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2136158</v>
+        <v>2133659</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6169750156243435</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.600145597409861</v>
+        <v>0.5988496952305948</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6348558838340741</v>
+        <v>0.6341131099991665</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1960</v>
@@ -5056,19 +5056,19 @@
         <v>2116336</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2058225</v>
+        <v>2051456</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2179150</v>
+        <v>2175359</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6013103360273948</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5847995252971948</v>
+        <v>0.5828762159069719</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6191575082508798</v>
+        <v>0.6180805846239124</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3908</v>
@@ -5077,19 +5077,19 @@
         <v>4192328</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4111428</v>
+        <v>4107118</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4279341</v>
+        <v>4274388</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6089666186549082</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5972152704993626</v>
+        <v>0.5965892246551565</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6216057819633483</v>
+        <v>0.6208864112858938</v>
       </c>
     </row>
     <row r="32">
@@ -5106,19 +5106,19 @@
         <v>719588</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>670921</v>
+        <v>673553</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>768021</v>
+        <v>767563</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2138581551136948</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1993945648819602</v>
+        <v>0.2001766666214035</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2282520924368794</v>
+        <v>0.2281158966302107</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>423</v>
@@ -5127,19 +5127,19 @@
         <v>454332</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>417683</v>
+        <v>413910</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>498912</v>
+        <v>496958</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1290884733912684</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1186755482481013</v>
+        <v>0.1176035282305272</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1417549821252047</v>
+        <v>0.1411997916751405</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1111</v>
@@ -5148,19 +5148,19 @@
         <v>1173920</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1113201</v>
+        <v>1110846</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1242785</v>
+        <v>1241482</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1705205778588036</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1617006474667557</v>
+        <v>0.1613586292833085</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1805236241024765</v>
+        <v>0.1803344522585991</v>
       </c>
     </row>
     <row r="33">
@@ -5492,19 +5492,19 @@
         <v>4707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1692</v>
+        <v>958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13899</v>
+        <v>12560</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004207637042542238</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001512131666758412</v>
+        <v>0.0008565568754228375</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01242507454367603</v>
+        <v>0.01122731834598957</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5513,19 +5513,19 @@
         <v>16978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10180</v>
+        <v>10291</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26994</v>
+        <v>28519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01360823975580057</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008159112614149075</v>
+        <v>0.008248306391919952</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02163538418769173</v>
+        <v>0.02285780245238749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -5534,19 +5534,19 @@
         <v>21685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13146</v>
+        <v>13787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33944</v>
+        <v>34199</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009164166147567295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005555475490707601</v>
+        <v>0.005826307157914043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01434478617083127</v>
+        <v>0.01445255137743637</v>
       </c>
     </row>
     <row r="5">
@@ -5563,19 +5563,19 @@
         <v>37667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26739</v>
+        <v>26894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49975</v>
+        <v>50952</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0336710882149665</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02390220434481375</v>
+        <v>0.02404132527377012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04467341052280883</v>
+        <v>0.04554685232104601</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -5584,19 +5584,19 @@
         <v>70926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55561</v>
+        <v>54735</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89452</v>
+        <v>89981</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05684736066525996</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0445317922974313</v>
+        <v>0.04386983936347168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07169561070263612</v>
+        <v>0.07211991327067442</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>101</v>
@@ -5605,19 +5605,19 @@
         <v>108593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>89184</v>
+        <v>89924</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130937</v>
+        <v>132701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04589092905387943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03768903359913068</v>
+        <v>0.03800135891133997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05533346019552778</v>
+        <v>0.05607877294038987</v>
       </c>
     </row>
     <row r="6">
@@ -5634,19 +5634,19 @@
         <v>189467</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>166455</v>
+        <v>165417</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>215437</v>
+        <v>214658</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1693694143384414</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1487976684950113</v>
+        <v>0.147870466297375</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1925842157603644</v>
+        <v>0.1918880125645909</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>281</v>
@@ -5655,19 +5655,19 @@
         <v>321285</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>290658</v>
+        <v>292773</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>356081</v>
+        <v>358382</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2575102739229869</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2329625910628112</v>
+        <v>0.2346574265253635</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2853987017023649</v>
+        <v>0.2872434676871821</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>463</v>
@@ -5676,19 +5676,19 @@
         <v>510753</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>470600</v>
+        <v>473457</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>555330</v>
+        <v>557986</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2158422575378008</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1988738471787856</v>
+        <v>0.2000813620276481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2346806316920679</v>
+        <v>0.2358027686075554</v>
       </c>
     </row>
     <row r="7">
@@ -5705,19 +5705,19 @@
         <v>654610</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>620970</v>
+        <v>621816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>687609</v>
+        <v>690952</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5851715805790979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5551000817641953</v>
+        <v>0.5558558220332139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6146693818424277</v>
+        <v>0.6176579227145323</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>667</v>
@@ -5726,19 +5726,19 @@
         <v>689515</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>653346</v>
+        <v>652091</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>724157</v>
+        <v>723650</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5526467391797147</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5236567092496757</v>
+        <v>0.5226514313687612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5804117691404126</v>
+        <v>0.5800061056507063</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1284</v>
@@ -5747,19 +5747,19 @@
         <v>1344126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1295835</v>
+        <v>1298393</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1392153</v>
+        <v>1391900</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.568022645776758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5476150668805703</v>
+        <v>0.5486961280591589</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5883190501522791</v>
+        <v>0.5882118322396315</v>
       </c>
     </row>
     <row r="8">
@@ -5776,19 +5776,19 @@
         <v>232213</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>204500</v>
+        <v>206859</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>258810</v>
+        <v>261534</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2075802798249519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1828077160321925</v>
+        <v>0.1849165579959169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2313563318497499</v>
+        <v>0.2337916975559007</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>150</v>
@@ -5797,19 +5797,19 @@
         <v>148955</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>126080</v>
+        <v>128559</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>172714</v>
+        <v>174072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1193873864762378</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1010530739672946</v>
+        <v>0.1030404450547479</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1384299420169028</v>
+        <v>0.1395183810628751</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>366</v>
@@ -5818,19 +5818,19 @@
         <v>381167</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>344608</v>
+        <v>344778</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>422598</v>
+        <v>416168</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1610800014839945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1456299940072744</v>
+        <v>0.1457021455002031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.178588403774248</v>
+        <v>0.1758711640825976</v>
       </c>
     </row>
     <row r="9">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5319</v>
+        <v>5298</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001937622551552036</v>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.005865388334127481</v>
+        <v>0.005842750103472955</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6397</v>
+        <v>6724</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001269684143028365</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006389599412774334</v>
+        <v>0.006716233695136166</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5964,19 +5964,19 @@
         <v>3028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9014</v>
+        <v>8396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001587142534048752</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0004527215712896262</v>
+        <v>0.0004533118018158872</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004724599039024538</v>
+        <v>0.004400661980799823</v>
       </c>
     </row>
     <row r="11">
@@ -5993,19 +5993,19 @@
         <v>16495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10081</v>
+        <v>9978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27840</v>
+        <v>25541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01819133950598779</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01111712524172335</v>
+        <v>0.0110035422073901</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03070190010961915</v>
+        <v>0.02816666413517334</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -6014,19 +6014,19 @@
         <v>34536</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23540</v>
+        <v>24139</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49063</v>
+        <v>47889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03449847582466024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02351432695188718</v>
+        <v>0.02411250301847941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04900942227832822</v>
+        <v>0.04783669277750271</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -6035,19 +6035,19 @@
         <v>51032</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37712</v>
+        <v>36680</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66166</v>
+        <v>66245</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02674800483539926</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01976641006523419</v>
+        <v>0.01922573331852392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03468061604833072</v>
+        <v>0.03472212121659506</v>
       </c>
     </row>
     <row r="12">
@@ -6064,19 +6064,19 @@
         <v>106211</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87430</v>
+        <v>87213</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>126913</v>
+        <v>127027</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.117131153489646</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09641862520138396</v>
+        <v>0.09617912717084245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1399615612307306</v>
+        <v>0.1400869444926232</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>175</v>
@@ -6085,19 +6085,19 @@
         <v>194278</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>169999</v>
+        <v>169827</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>223146</v>
+        <v>220587</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1940655958889679</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1698130279228441</v>
+        <v>0.1696415637252054</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2229016484676815</v>
+        <v>0.220346145358603</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>282</v>
@@ -6106,19 +6106,19 @@
         <v>300489</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>269419</v>
+        <v>272488</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>333789</v>
+        <v>337019</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.157500122206863</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1412149273523606</v>
+        <v>0.1428234236562146</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1749539103794827</v>
+        <v>0.1766469905301967</v>
       </c>
     </row>
     <row r="13">
@@ -6135,19 +6135,19 @@
         <v>538275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>509075</v>
+        <v>510193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>569369</v>
+        <v>570499</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5936163693307573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.561414373673214</v>
+        <v>0.5626476455938364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6279080365527733</v>
+        <v>0.6291542780130381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>528</v>
@@ -6156,19 +6156,19 @@
         <v>558648</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>527545</v>
+        <v>526863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>590480</v>
+        <v>589231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5580378227318136</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.526968356237439</v>
+        <v>0.5262876684577742</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5898351547625299</v>
+        <v>0.5885865899365701</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1047</v>
@@ -6177,19 +6177,19 @@
         <v>1096923</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1055813</v>
+        <v>1054022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1140490</v>
+        <v>1143773</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5749476276090462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5534001079897634</v>
+        <v>0.5524612593132752</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5977830072606136</v>
+        <v>0.5995039979387409</v>
       </c>
     </row>
     <row r="14">
@@ -6206,19 +6206,19 @@
         <v>244034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>217476</v>
+        <v>217357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>270819</v>
+        <v>271131</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2691235151220568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2398357928650783</v>
+        <v>0.2397041571533061</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2986625704569493</v>
+        <v>0.299006848664688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>212</v>
@@ -6227,19 +6227,19 @@
         <v>212360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>187016</v>
+        <v>189076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>238277</v>
+        <v>238659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2121284214115299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.186811246442913</v>
+        <v>0.1888691198336577</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2380168970353092</v>
+        <v>0.2383985219471028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>447</v>
@@ -6248,19 +6248,19 @@
         <v>456394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>416833</v>
+        <v>417747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>494655</v>
+        <v>492808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2392171028146429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2184814897956632</v>
+        <v>0.2189604351478735</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2592712079103463</v>
+        <v>0.2583032565503732</v>
       </c>
     </row>
     <row r="15">
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7438</v>
+        <v>8394</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003089656466183676</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009747184587085612</v>
+        <v>0.0110012274016215</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7725</v>
+        <v>8679</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001491553959466125</v>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004887569985846538</v>
+        <v>0.00549061323735032</v>
       </c>
     </row>
     <row r="17">
@@ -6415,19 +6415,19 @@
         <v>14329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7988</v>
+        <v>8289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24717</v>
+        <v>23658</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01752693478670897</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009770547068555534</v>
+        <v>0.01013926235245023</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03023330895959586</v>
+        <v>0.02893692195455827</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -6436,19 +6436,19 @@
         <v>33581</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22092</v>
+        <v>22745</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46905</v>
+        <v>48253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04400960719791417</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02895198740746736</v>
+        <v>0.02980763260910209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06147060575658257</v>
+        <v>0.06323679247053683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -6457,19 +6457,19 @@
         <v>47911</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34541</v>
+        <v>35033</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64436</v>
+        <v>63522</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03031163603893847</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02185301621583319</v>
+        <v>0.02216411217677943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04076673748966107</v>
+        <v>0.04018825921809684</v>
       </c>
     </row>
     <row r="18">
@@ -6486,19 +6486,19 @@
         <v>99261</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81316</v>
+        <v>82160</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119042</v>
+        <v>118945</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1214120149166184</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.099462558911352</v>
+        <v>0.1004939418716663</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1456065673440441</v>
+        <v>0.1454881595555438</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>106</v>
@@ -6507,19 +6507,19 @@
         <v>121863</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>102659</v>
+        <v>101985</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144042</v>
+        <v>143498</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1597058786707897</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1345378936123845</v>
+        <v>0.133655096755208</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1887713558927215</v>
+        <v>0.188059143999673</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>206</v>
@@ -6528,19 +6528,19 @@
         <v>221125</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>194348</v>
+        <v>194545</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>249255</v>
+        <v>250371</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1398986540400746</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1229578291785469</v>
+        <v>0.1230821611696935</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1576959006922362</v>
+        <v>0.1584020305855078</v>
       </c>
     </row>
     <row r="19">
@@ -6557,19 +6557,19 @@
         <v>486279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>459728</v>
+        <v>455238</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>516292</v>
+        <v>511700</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5947948851951066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5623189946820166</v>
+        <v>0.5568271010117405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6315052930475951</v>
+        <v>0.625888126815917</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>417</v>
@@ -6578,19 +6578,19 @@
         <v>440328</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>414949</v>
+        <v>412890</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>468254</v>
+        <v>466831</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5770637198334595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5438039422189571</v>
+        <v>0.5411060252061495</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6136613441007408</v>
+        <v>0.6117968865309936</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>875</v>
@@ -6599,19 +6599,19 @@
         <v>926607</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>888005</v>
+        <v>889236</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>971757</v>
+        <v>968465</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5862350371373772</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5618125940275989</v>
+        <v>0.5625916833761991</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6147998473023597</v>
+        <v>0.612717417568274</v>
       </c>
     </row>
     <row r="20">
@@ -6628,19 +6628,19 @@
         <v>217688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194708</v>
+        <v>193468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243850</v>
+        <v>244635</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.266266165101566</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2381581162728221</v>
+        <v>0.2366410532205252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2982666076384853</v>
+        <v>0.2992265525541428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>167</v>
@@ -6649,19 +6649,19 @@
         <v>164919</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>142553</v>
+        <v>144236</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>187495</v>
+        <v>187562</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.216131137831653</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1868202892352237</v>
+        <v>0.1890257767623908</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2457185344231425</v>
+        <v>0.2458056881239133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>376</v>
@@ -6670,19 +6670,19 @@
         <v>382607</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>347751</v>
+        <v>347209</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>417141</v>
+        <v>418455</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2420631188241436</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2200112735420657</v>
+        <v>0.2196682792332247</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.263912079484342</v>
+        <v>0.2647429551900138</v>
       </c>
     </row>
     <row r="21">
@@ -6774,19 +6774,19 @@
         <v>2725</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8308</v>
+        <v>7236</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005405261168707984</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001766268057250014</v>
+        <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01648060302305191</v>
+        <v>0.01435257884580456</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5620</v>
+        <v>5286</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002136348000898733</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0115944413951233</v>
+        <v>0.01090570593908659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -6816,19 +6816,19 @@
         <v>3761</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9772</v>
+        <v>9507</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003802877106930992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0009307733597331769</v>
+        <v>0.0009211919616795185</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009882408262117259</v>
+        <v>0.009614454641274516</v>
       </c>
     </row>
     <row r="23">
@@ -6845,19 +6845,19 @@
         <v>4491</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1699</v>
+        <v>1674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11899</v>
+        <v>12224</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00890766332626812</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003369612699518314</v>
+        <v>0.003319624022268816</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02360331884868359</v>
+        <v>0.02424830927320431</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -6866,19 +6866,19 @@
         <v>11139</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5228</v>
+        <v>5426</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20186</v>
+        <v>20276</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02298083019784102</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0107850420275796</v>
+        <v>0.01119295407581442</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04164403336245145</v>
+        <v>0.04183053753495031</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -6887,19 +6887,19 @@
         <v>15630</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7868</v>
+        <v>9022</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25766</v>
+        <v>27728</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01580616969095363</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00795671259099622</v>
+        <v>0.009123837422041578</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02605647280925563</v>
+        <v>0.02804042679400467</v>
       </c>
     </row>
     <row r="24">
@@ -6916,19 +6916,19 @@
         <v>57900</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>43935</v>
+        <v>44190</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>74063</v>
+        <v>73687</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1148515824802617</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08715034732809272</v>
+        <v>0.08765552881091022</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1469124227609966</v>
+        <v>0.1461663246790418</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -6937,19 +6937,19 @@
         <v>68758</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53735</v>
+        <v>53836</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86830</v>
+        <v>86586</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1418477890699389</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1108554885902021</v>
+        <v>0.1110642982239641</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1791320345370968</v>
+        <v>0.1786282878205466</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>112</v>
@@ -6958,19 +6958,19 @@
         <v>126658</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>105024</v>
+        <v>105635</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>149493</v>
+        <v>150034</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1280848159578975</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1062073700700289</v>
+        <v>0.1068247183019661</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1511768178145185</v>
+        <v>0.1517242388683968</v>
       </c>
     </row>
     <row r="25">
@@ -6987,19 +6987,19 @@
         <v>282766</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>259822</v>
+        <v>260803</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>306442</v>
+        <v>304644</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5608969364382381</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5153856786059329</v>
+        <v>0.5173306246588041</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.607860858292135</v>
+        <v>0.6042939147040972</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>262</v>
@@ -7008,19 +7008,19 @@
         <v>278732</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>257623</v>
+        <v>256240</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>301225</v>
+        <v>299963</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5750270635358999</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5314800719303954</v>
+        <v>0.5286254106048114</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6214316813976861</v>
+        <v>0.6188284965311408</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>526</v>
@@ -7029,19 +7029,19 @@
         <v>561498</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>530397</v>
+        <v>527782</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>594151</v>
+        <v>592237</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5678233640580181</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5363719600482489</v>
+        <v>0.533727796987405</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6008444475923008</v>
+        <v>0.5989087252718679</v>
       </c>
     </row>
     <row r="26">
@@ -7058,19 +7058,19 @@
         <v>156250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>134362</v>
+        <v>133711</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>176283</v>
+        <v>178577</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3099385565865241</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2665211743873546</v>
+        <v>0.2652295816240886</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3496753072896865</v>
+        <v>0.3542260595354624</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>119</v>
@@ -7079,19 +7079,19 @@
         <v>125064</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>105096</v>
+        <v>104518</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>144081</v>
+        <v>145024</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2580079691954214</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2168137991401378</v>
+        <v>0.2156215936520783</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2972414596303495</v>
+        <v>0.2991864245084189</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>263</v>
@@ -7100,19 +7100,19 @@
         <v>281314</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>253697</v>
+        <v>250424</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>309948</v>
+        <v>312949</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2844827731861998</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.256554705797332</v>
+        <v>0.2532456052769295</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3134393230743398</v>
+        <v>0.3164742320703187</v>
       </c>
     </row>
     <row r="27">
@@ -7204,19 +7204,19 @@
         <v>9189</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4553</v>
+        <v>4480</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17134</v>
+        <v>17590</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002745304425276169</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001360159347502639</v>
+        <v>0.001338541428559928</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005118872996350657</v>
+        <v>0.005255245328377429</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -7225,19 +7225,19 @@
         <v>21643</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13133</v>
+        <v>13647</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33884</v>
+        <v>33024</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006189745029881122</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003755956849711361</v>
+        <v>0.003902926206476932</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009690674166207761</v>
+        <v>0.009444789223275758</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -7246,19 +7246,19 @@
         <v>30832</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21002</v>
+        <v>20585</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>43902</v>
+        <v>44797</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00450512269851994</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003068824348516419</v>
+        <v>0.003007882941476278</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006414943465403821</v>
+        <v>0.006545778265036653</v>
       </c>
     </row>
     <row r="29">
@@ -7275,19 +7275,19 @@
         <v>72982</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>58390</v>
+        <v>58391</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>94119</v>
+        <v>91941</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02180436559430991</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01744475519431822</v>
+        <v>0.01744511269845636</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02811937977966344</v>
+        <v>0.02746870212483195</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>130</v>
@@ -7296,19 +7296,19 @@
         <v>150183</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>129110</v>
+        <v>124865</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>179467</v>
+        <v>176023</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0429520967116687</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03692509942002929</v>
+        <v>0.0357112049386669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05132711886160438</v>
+        <v>0.05034229036194304</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>202</v>
@@ -7317,19 +7317,19 @@
         <v>223165</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>189569</v>
+        <v>196341</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>254711</v>
+        <v>259374</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03260907031420514</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02769994965354316</v>
+        <v>0.02868946903045112</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03721848518492468</v>
+        <v>0.03789993900262768</v>
       </c>
     </row>
     <row r="30">
@@ -7346,19 +7346,19 @@
         <v>452840</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>415704</v>
+        <v>412372</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>493408</v>
+        <v>491100</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1352923211587694</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1241972527230128</v>
+        <v>0.1232017737150872</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1474125159736224</v>
+        <v>0.1467229904827446</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>621</v>
@@ -7367,19 +7367,19 @@
         <v>706184</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>654517</v>
+        <v>657502</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>756185</v>
+        <v>758584</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2019670800177776</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1871905698265325</v>
+        <v>0.1880441574248368</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2162673160170969</v>
+        <v>0.2169533372364711</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1063</v>
@@ -7388,19 +7388,19 @@
         <v>1159024</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1099266</v>
+        <v>1099478</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1227741</v>
+        <v>1229761</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1693574923936388</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1606255782635892</v>
+        <v>0.1606565436558384</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1793983904737572</v>
+        <v>0.1796935748272765</v>
       </c>
     </row>
     <row r="31">
@@ -7417,19 +7417,19 @@
         <v>1961930</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1893751</v>
+        <v>1903835</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2012991</v>
+        <v>2024993</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.586153761765605</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.565784220140326</v>
+        <v>0.5687970128836901</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6014089202220511</v>
+        <v>0.6049946251832448</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1874</v>
@@ -7438,19 +7438,19 @@
         <v>1967223</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1911691</v>
+        <v>1904878</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2027189</v>
+        <v>2031956</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5626214006639362</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5467394282470119</v>
+        <v>0.5447909765833874</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5797717326532245</v>
+        <v>0.5811350932365945</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3732</v>
@@ -7459,19 +7459,19 @@
         <v>3929153</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3840758</v>
+        <v>3848447</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4015208</v>
+        <v>4005199</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5741307125006758</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5612143220434846</v>
+        <v>0.5623378842446312</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5867051179595472</v>
+        <v>0.585242571024652</v>
       </c>
     </row>
     <row r="32">
@@ -7488,19 +7488,19 @@
         <v>850184</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>802062</v>
+        <v>797858</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>909578</v>
+        <v>902277</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2540042470560396</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2396269881696637</v>
+        <v>0.2383710185037655</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2717490489140451</v>
+        <v>0.269567535675965</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>648</v>
@@ -7509,19 +7509,19 @@
         <v>651298</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>610621</v>
+        <v>605026</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>706821</v>
+        <v>694656</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1862696775767363</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1746363132640301</v>
+        <v>0.1730360018191956</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.20214925851712</v>
+        <v>0.1986700760789716</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1452</v>
@@ -7530,19 +7530,19 @@
         <v>1501482</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1426473</v>
+        <v>1439271</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1577603</v>
+        <v>1573267</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2193976020929603</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2084372525342433</v>
+        <v>0.2103073623671512</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.230520551191441</v>
+        <v>0.2298868968850699</v>
       </c>
     </row>
     <row r="33">
@@ -7874,19 +7874,19 @@
         <v>17729</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10558</v>
+        <v>10801</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26528</v>
+        <v>27610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0355469342615925</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02116952758417757</v>
+        <v>0.02165641763669316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05318980582657556</v>
+        <v>0.05536029330803421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -7895,19 +7895,19 @@
         <v>20010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14151</v>
+        <v>14208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29187</v>
+        <v>28372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03208883095797114</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02269289514833008</v>
+        <v>0.02278392008551424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04680623192577792</v>
+        <v>0.04549926521228879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -7916,19 +7916,19 @@
         <v>37739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28251</v>
+        <v>28551</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49469</v>
+        <v>49433</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03362555200044683</v>
+        <v>0.03362555200044684</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02517152839715934</v>
+        <v>0.02543898420478655</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04407701315851187</v>
+        <v>0.0440452928053662</v>
       </c>
     </row>
     <row r="5">
@@ -7945,19 +7945,19 @@
         <v>39730</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30387</v>
+        <v>30065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54446</v>
+        <v>52001</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07966028211719794</v>
+        <v>0.07966028211719792</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06092789555367611</v>
+        <v>0.06028253690578406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1091664415759547</v>
+        <v>0.104264261166328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -7966,19 +7966,19 @@
         <v>72703</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60839</v>
+        <v>60222</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86544</v>
+        <v>85414</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1165892391934933</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09756401856533334</v>
+        <v>0.09657514696166701</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1387858454866419</v>
+        <v>0.136973355038755</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -7987,19 +7987,19 @@
         <v>112433</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96140</v>
+        <v>97046</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130452</v>
+        <v>130276</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1001786521076777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08566207233370207</v>
+        <v>0.08646887513118259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1162338665256697</v>
+        <v>0.1160775834363078</v>
       </c>
     </row>
     <row r="6">
@@ -8016,19 +8016,19 @@
         <v>105321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88414</v>
+        <v>87868</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127546</v>
+        <v>126042</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2111744531247941</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1772748163621787</v>
+        <v>0.1761796825468122</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2557364492403781</v>
+        <v>0.2527223269947765</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>260</v>
@@ -8037,19 +8037,19 @@
         <v>169288</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151876</v>
+        <v>150769</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>189881</v>
+        <v>191248</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2714779634369541</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2435550221788937</v>
+        <v>0.2417803633296321</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.304500987165548</v>
+        <v>0.3066941413584737</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>370</v>
@@ -8058,19 +8058,19 @@
         <v>274609</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>247719</v>
+        <v>249462</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>302846</v>
+        <v>303864</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.24468013089829</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2207205140421829</v>
+        <v>0.2222736664819479</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.269838967211362</v>
+        <v>0.2707461394269808</v>
       </c>
     </row>
     <row r="7">
@@ -8087,19 +8087,19 @@
         <v>262703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>236865</v>
+        <v>239543</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>286370</v>
+        <v>287388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5267350077321499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4749281649341067</v>
+        <v>0.4802972282159923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5741877904284095</v>
+        <v>0.5762290499553665</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>398</v>
@@ -8108,19 +8108,19 @@
         <v>312736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>292123</v>
+        <v>291469</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>337633</v>
+        <v>334990</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5015175250542933</v>
+        <v>0.5015175250542934</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4684606535742666</v>
+        <v>0.4674119502662421</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5414423228178289</v>
+        <v>0.5372039936865529</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>634</v>
@@ -8129,19 +8129,19 @@
         <v>575440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>540128</v>
+        <v>542885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>606946</v>
+        <v>607157</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5127237363403319</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.481260148368352</v>
+        <v>0.4837171371080018</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5407955733505614</v>
+        <v>0.5409838951865025</v>
       </c>
     </row>
     <row r="8">
@@ -8158,19 +8158,19 @@
         <v>73256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54159</v>
+        <v>52318</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>97290</v>
+        <v>96576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1468833227642656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1085917041658618</v>
+        <v>0.1049013631012456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1950712919673444</v>
+        <v>0.193639912113888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -8179,19 +8179,19 @@
         <v>48843</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36030</v>
+        <v>36047</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64962</v>
+        <v>66782</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07832644135728806</v>
+        <v>0.07832644135728804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05777988056511577</v>
+        <v>0.05780656049990058</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1041751357825294</v>
+        <v>0.1070946399325512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>88</v>
@@ -8200,19 +8200,19 @@
         <v>122099</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>94523</v>
+        <v>98456</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>151811</v>
+        <v>149989</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1087919286532536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08422097863760128</v>
+        <v>0.0877255700492266</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1352652740072919</v>
+        <v>0.133642307354956</v>
       </c>
     </row>
     <row r="9">
@@ -8304,19 +8304,19 @@
         <v>12186</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7008</v>
+        <v>7000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21595</v>
+        <v>21067</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01269200578884252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007299003708093284</v>
+        <v>0.007290776294906057</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02249169027043726</v>
+        <v>0.02194119621568915</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -8325,19 +8325,19 @@
         <v>15239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10524</v>
+        <v>10027</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22671</v>
+        <v>22629</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0136568413166332</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00943147686029344</v>
+        <v>0.0089857356425756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02031712315073469</v>
+        <v>0.02027960159739221</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -8346,19 +8346,19 @@
         <v>27425</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19083</v>
+        <v>19791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36964</v>
+        <v>38584</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01321060806505797</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009192431487360243</v>
+        <v>0.009533394315656918</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01780533793492554</v>
+        <v>0.0185858671354046</v>
       </c>
     </row>
     <row r="11">
@@ -8375,19 +8375,19 @@
         <v>31617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23146</v>
+        <v>22338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40932</v>
+        <v>41427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03292993861195467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02410702148610542</v>
+        <v>0.02326575502686745</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0426315388554778</v>
+        <v>0.0431470013063306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -8396,19 +8396,19 @@
         <v>70390</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59931</v>
+        <v>59970</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>85416</v>
+        <v>83280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06308206283408936</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05370897817159757</v>
+        <v>0.0537436875818184</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07654756059300329</v>
+        <v>0.07463376897529371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>181</v>
@@ -8417,19 +8417,19 @@
         <v>102007</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85289</v>
+        <v>87761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>116874</v>
+        <v>119398</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.04913680476056791</v>
+        <v>0.04913680476056792</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04108381343712175</v>
+        <v>0.04227441333716268</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05629822022938043</v>
+        <v>0.05751398612165219</v>
       </c>
     </row>
     <row r="12">
@@ -8446,19 +8446,19 @@
         <v>146043</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>124419</v>
+        <v>125029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168108</v>
+        <v>170784</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1521059783039353</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1295841307412155</v>
+        <v>0.1302198818945071</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1750880004933038</v>
+        <v>0.1778746079787178</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>442</v>
@@ -8467,19 +8467,19 @@
         <v>266786</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>243997</v>
+        <v>243277</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>289604</v>
+        <v>290685</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2390879003889008</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2186652200160209</v>
+        <v>0.218019534786735</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2595370804021395</v>
+        <v>0.2605057621031724</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>612</v>
@@ -8488,19 +8488,19 @@
         <v>412829</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>384177</v>
+        <v>382068</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>447171</v>
+        <v>446904</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1988590481107146</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1850574639025761</v>
+        <v>0.1840418145268429</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.21540153957916</v>
+        <v>0.2152729000696338</v>
       </c>
     </row>
     <row r="13">
@@ -8517,19 +8517,19 @@
         <v>632549</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>596974</v>
+        <v>596857</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>665575</v>
+        <v>662751</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6588112480957292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6217592025613528</v>
+        <v>0.6216375605094226</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6932080999285622</v>
+        <v>0.6902671853198146</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>899</v>
@@ -8538,19 +8538,19 @@
         <v>670576</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>644345</v>
+        <v>641815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>701352</v>
+        <v>698851</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6009555490114038</v>
+        <v>0.6009555490114037</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5774479494650242</v>
+        <v>0.5751807947532169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6285365542730952</v>
+        <v>0.6262951460772511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1488</v>
@@ -8559,19 +8559,19 @@
         <v>1303125</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1257229</v>
+        <v>1259271</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1343435</v>
+        <v>1346838</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6277136191497138</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6056055142826167</v>
+        <v>0.6065895245150885</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6471311736494408</v>
+        <v>0.6487701163554224</v>
       </c>
     </row>
     <row r="14">
@@ -8588,19 +8588,19 @@
         <v>137742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>111500</v>
+        <v>111801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>168597</v>
+        <v>169201</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1434608291995384</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1161295516217412</v>
+        <v>0.1164432322441961</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1755972700420021</v>
+        <v>0.1762254084561371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -8609,19 +8609,19 @@
         <v>92858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>75867</v>
+        <v>74718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114438</v>
+        <v>111559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08321764644897271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06799024818483002</v>
+        <v>0.06696041376262017</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1025572296078962</v>
+        <v>0.09997701150649978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>192</v>
@@ -8630,19 +8630,19 @@
         <v>230600</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>199299</v>
+        <v>197349</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>267652</v>
+        <v>270458</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1110799199139457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09600189739185619</v>
+        <v>0.09506256510768853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1289277482837009</v>
+        <v>0.1302793581801007</v>
       </c>
     </row>
     <row r="15">
@@ -8734,19 +8734,19 @@
         <v>3286</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>996</v>
+        <v>823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8985</v>
+        <v>8710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003140365395833294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0009519038589889007</v>
+        <v>0.0007860115423746615</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008585984678357372</v>
+        <v>0.008323091034210806</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -8755,19 +8755,19 @@
         <v>7650</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4529</v>
+        <v>4432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12778</v>
+        <v>12953</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.007302551413779869</v>
+        <v>0.007302551413779871</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004322972567382111</v>
+        <v>0.004230728974337827</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01219733179922834</v>
+        <v>0.01236427020992659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -8776,19 +8776,19 @@
         <v>10937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6572</v>
+        <v>6560</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17631</v>
+        <v>18004</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.005222613530845815</v>
+        <v>0.005222613530845817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00313832435077854</v>
+        <v>0.003132452867038044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008419201275886991</v>
+        <v>0.00859718845276651</v>
       </c>
     </row>
     <row r="17">
@@ -8805,19 +8805,19 @@
         <v>26034</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18740</v>
+        <v>18358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38541</v>
+        <v>37753</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02487770087744169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01790728869234427</v>
+        <v>0.01754259174809799</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03682899778975601</v>
+        <v>0.03607584632724836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -8826,19 +8826,19 @@
         <v>35204</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26478</v>
+        <v>26556</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44823</v>
+        <v>44836</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03360313109722014</v>
+        <v>0.03360313109722013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02527392605649554</v>
+        <v>0.02534874402191376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04278470857550343</v>
+        <v>0.04279731000399539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -8847,19 +8847,19 @@
         <v>61238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48856</v>
+        <v>49199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75594</v>
+        <v>76093</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02924283754456235</v>
+        <v>0.02924283754456236</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02333005970448674</v>
+        <v>0.02349379851487102</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03609833657832319</v>
+        <v>0.03633662653192088</v>
       </c>
     </row>
     <row r="18">
@@ -8876,19 +8876,19 @@
         <v>140071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>119546</v>
+        <v>119187</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>163187</v>
+        <v>163061</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.133849808736808</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1142368225306959</v>
+        <v>0.1138936700774755</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1559388792702364</v>
+        <v>0.1558191332900258</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>318</v>
@@ -8897,19 +8897,19 @@
         <v>189282</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>168285</v>
+        <v>170349</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>210061</v>
+        <v>212920</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1806747194794434</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1606319022209843</v>
+        <v>0.1626018475161785</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2005083578303716</v>
+        <v>0.2032371685928442</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>487</v>
@@ -8918,19 +8918,19 @@
         <v>329353</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>298923</v>
+        <v>299608</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>360803</v>
+        <v>359868</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1572752593643325</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1427436865742865</v>
+        <v>0.1430709561493717</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1722933120204944</v>
+        <v>0.1718466574631906</v>
       </c>
     </row>
     <row r="19">
@@ -8947,19 +8947,19 @@
         <v>667256</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>631587</v>
+        <v>630090</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>700288</v>
+        <v>702728</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.637620280455059</v>
+        <v>0.6376202804550591</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6035348789049811</v>
+        <v>0.6021045754835899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6691845158068513</v>
+        <v>0.6715166759460527</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>969</v>
@@ -8968,19 +8968,19 @@
         <v>679541</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>652780</v>
+        <v>650073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>706791</v>
+        <v>705604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6486387709402459</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6230947075706502</v>
+        <v>0.6205107598767076</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6746490633257057</v>
+        <v>0.6735160625015187</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1640</v>
@@ -8989,19 +8989,19 @@
         <v>1346797</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1300618</v>
+        <v>1299062</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1388602</v>
+        <v>1388550</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6431325836448988</v>
+        <v>0.6431325836448989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6210807374746444</v>
+        <v>0.6203377378056308</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6630953677102294</v>
+        <v>0.6630706950199827</v>
       </c>
     </row>
     <row r="20">
@@ -9018,19 +9018,19 @@
         <v>209831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179814</v>
+        <v>181238</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241199</v>
+        <v>247454</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2005118445348578</v>
+        <v>0.2005118445348579</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1718273176383294</v>
+        <v>0.1731884745448688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2304864515068086</v>
+        <v>0.2364634328917868</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>152</v>
@@ -9039,19 +9039,19 @@
         <v>135964</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>115577</v>
+        <v>116172</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>158300</v>
+        <v>158406</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1297808270693107</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1103209738007825</v>
+        <v>0.1108892117361398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1511014780495106</v>
+        <v>0.1512028875717514</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>300</v>
@@ -9060,19 +9060,19 @@
         <v>345795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>309181</v>
+        <v>310661</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>386996</v>
+        <v>387913</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1651267059153604</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1476422785534502</v>
+        <v>0.14834894411086</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1848012581593015</v>
+        <v>0.1852390447681898</v>
       </c>
     </row>
     <row r="21">
@@ -9164,19 +9164,19 @@
         <v>5326</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1879</v>
+        <v>1974</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10999</v>
+        <v>12119</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005457764164836894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001924978994232561</v>
+        <v>0.002023099128182362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01127002223574118</v>
+        <v>0.01241786722964358</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -9185,19 +9185,19 @@
         <v>5671</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2744</v>
+        <v>2589</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10742</v>
+        <v>10638</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006244334459251153</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003020798355713537</v>
+        <v>0.002850801050462913</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01182762284988994</v>
+        <v>0.01171306370115684</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -9206,19 +9206,19 @@
         <v>10998</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6559</v>
+        <v>6389</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18594</v>
+        <v>18612</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.005836922775074575</v>
+        <v>0.005836922775074574</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003481263938917119</v>
+        <v>0.003391127676783497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009868703228018406</v>
+        <v>0.009877877181125984</v>
       </c>
     </row>
     <row r="23">
@@ -9235,19 +9235,19 @@
         <v>17488</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10734</v>
+        <v>11252</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26034</v>
+        <v>27048</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01791901797141861</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01099854970677941</v>
+        <v>0.01152939999011506</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02667582952843831</v>
+        <v>0.02771522042574284</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>29</v>
@@ -9256,19 +9256,19 @@
         <v>17896</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12286</v>
+        <v>12348</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25923</v>
+        <v>26561</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01970362687341588</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01352668986737308</v>
+        <v>0.0135950377010281</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02854212391129379</v>
+        <v>0.02924436371067808</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -9277,19 +9277,19 @@
         <v>35384</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26472</v>
+        <v>26713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46964</v>
+        <v>47990</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01877927144895804</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01404953815591957</v>
+        <v>0.0141777852079683</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02492552047389154</v>
+        <v>0.02546973902073031</v>
       </c>
     </row>
     <row r="24">
@@ -9306,19 +9306,19 @@
         <v>104897</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>83763</v>
+        <v>87357</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>124178</v>
+        <v>125447</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1074840874541236</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08582911400271578</v>
+        <v>0.08951130683075592</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1272410428056475</v>
+        <v>0.1285414418193703</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>235</v>
@@ -9327,19 +9327,19 @@
         <v>146289</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>129314</v>
+        <v>128588</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>167837</v>
+        <v>165138</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1610672438629784</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1423766678875782</v>
+        <v>0.141577777209661</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1847915972564278</v>
+        <v>0.181819279184273</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>356</v>
@@ -9348,19 +9348,19 @@
         <v>251186</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>223074</v>
+        <v>224305</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>278536</v>
+        <v>277221</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.133313330257221</v>
+        <v>0.1333133302572209</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1183933814624033</v>
+        <v>0.1190466815272035</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1478286580118122</v>
+        <v>0.1471308368892295</v>
       </c>
     </row>
     <row r="25">
@@ -9377,19 +9377,19 @@
         <v>635665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>603934</v>
+        <v>603542</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>669712</v>
+        <v>666156</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.651343560674004</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6188301060259864</v>
+        <v>0.6184283952607403</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6862303432891269</v>
+        <v>0.6825863276732632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>883</v>
@@ -9398,19 +9398,19 @@
         <v>599367</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>571000</v>
+        <v>571612</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>623950</v>
+        <v>625129</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6599138796640602</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6286804456105445</v>
+        <v>0.6293549955874302</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6869800422408007</v>
+        <v>0.688277559988781</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1522</v>
@@ -9419,19 +9419,19 @@
         <v>1235033</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1189791</v>
+        <v>1188860</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1274435</v>
+        <v>1269792</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6554748001330064</v>
+        <v>0.6554748001330063</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.631463628407961</v>
+        <v>0.630969465434647</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6763872938639552</v>
+        <v>0.6739227507926926</v>
       </c>
     </row>
     <row r="26">
@@ -9448,19 +9448,19 @@
         <v>212553</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>179934</v>
+        <v>181929</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>241685</v>
+        <v>245492</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2177955697356168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1843724863072874</v>
+        <v>0.1864159451804265</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2476463672535631</v>
+        <v>0.2515468432763183</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>164</v>
@@ -9469,19 +9469,19 @@
         <v>139027</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>119360</v>
+        <v>119243</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>163134</v>
+        <v>161986</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1530709151402944</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1314177980441789</v>
+        <v>0.1312887329922193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1796133025904267</v>
+        <v>0.1783495755489349</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>323</v>
@@ -9490,19 +9490,19 @@
         <v>351580</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>316879</v>
+        <v>318155</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>395876</v>
+        <v>391350</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.18659567538574</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1681788263151134</v>
+        <v>0.1688557687795935</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2101049396491675</v>
+        <v>0.2077031084378481</v>
       </c>
     </row>
     <row r="27">
@@ -9594,19 +9594,19 @@
         <v>38527</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27775</v>
+        <v>27790</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52284</v>
+        <v>51760</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01106701696837974</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007978301044649222</v>
+        <v>0.00798281151769163</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01501861205645008</v>
+        <v>0.01486793693415269</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>84</v>
@@ -9615,19 +9615,19 @@
         <v>48571</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38324</v>
+        <v>38224</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>59963</v>
+        <v>61263</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01314386641352505</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01037086387458783</v>
+        <v>0.01034399723146673</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01622674805678896</v>
+        <v>0.01657843800688315</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>128</v>
@@ -9636,19 +9636,19 @@
         <v>87098</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>71074</v>
+        <v>73339</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>104179</v>
+        <v>104184</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01213641201054066</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009903602392164703</v>
+        <v>0.01021914417615306</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01451651736628335</v>
+        <v>0.01451720162490002</v>
       </c>
     </row>
     <row r="29">
@@ -9665,19 +9665,19 @@
         <v>114869</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97043</v>
+        <v>97259</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>135378</v>
+        <v>135266</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03299605408400327</v>
+        <v>0.03299605408400326</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02787554820578513</v>
+        <v>0.02793781862461779</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03888729016791113</v>
+        <v>0.03885507992002033</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>349</v>
@@ -9686,19 +9686,19 @@
         <v>196193</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>176662</v>
+        <v>176174</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>218189</v>
+        <v>217439</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05309218119763243</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04780684058626634</v>
+        <v>0.0476747611254525</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05904464399283707</v>
+        <v>0.05884168798962856</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>505</v>
@@ -9707,19 +9707,19 @@
         <v>311061</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>283302</v>
+        <v>283892</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>339180</v>
+        <v>343646</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04334379438467148</v>
+        <v>0.04334379438467149</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03947576304339694</v>
+        <v>0.03955791648250893</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04726191610758119</v>
+        <v>0.04788419595886341</v>
       </c>
     </row>
     <row r="30">
@@ -9736,19 +9736,19 @@
         <v>496331</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>456981</v>
+        <v>452031</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>537761</v>
+        <v>538157</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1425713557500571</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1312678766746102</v>
+        <v>0.1298461318376185</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1544719083032066</v>
+        <v>0.154585872797732</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1255</v>
@@ -9757,19 +9757,19 @@
         <v>771646</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>730173</v>
+        <v>731227</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>817033</v>
+        <v>814239</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2088170363485026</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1975939093122426</v>
+        <v>0.1978791923627273</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2210992110200599</v>
+        <v>0.2203432139300037</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1825</v>
@@ -9778,19 +9778,19 @@
         <v>1267978</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1211230</v>
+        <v>1213615</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1321781</v>
+        <v>1337262</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1766820625045356</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1687747268307434</v>
+        <v>0.1691070858564335</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1841790904013245</v>
+        <v>0.186336332141068</v>
       </c>
     </row>
     <row r="31">
@@ -9807,19 +9807,19 @@
         <v>2198174</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2129233</v>
+        <v>2129595</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2261488</v>
+        <v>2257884</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6314261086716717</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6116229749159742</v>
+        <v>0.6117267965305562</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6496131652746033</v>
+        <v>0.6485778953979955</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3149</v>
@@ -9828,19 +9828,19 @@
         <v>2262221</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2211203</v>
+        <v>2205866</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2314928</v>
+        <v>2315268</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6121849574063551</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5983789966453372</v>
+        <v>0.5969346817336471</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6264483004435429</v>
+        <v>0.6265401739303935</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5284</v>
@@ -9849,19 +9849,19 @@
         <v>4460394</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4374757</v>
+        <v>4379205</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4545131</v>
+        <v>4553270</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.6215186058352501</v>
+        <v>0.6215186058352502</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6095857601587427</v>
+        <v>0.6102055644574708</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6333259587457905</v>
+        <v>0.6344600676962502</v>
       </c>
     </row>
     <row r="32">
@@ -9878,19 +9878,19 @@
         <v>633383</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>576439</v>
+        <v>577456</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>691425</v>
+        <v>694803</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1819394645258881</v>
+        <v>0.1819394645258882</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1655822160663416</v>
+        <v>0.1658744672275278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1986119842149569</v>
+        <v>0.1995822711440674</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>467</v>
@@ -9899,19 +9899,19 @@
         <v>416692</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>379096</v>
+        <v>378726</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>458841</v>
+        <v>454196</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1127619586339848</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1025880276492235</v>
+        <v>0.1024878826071398</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1241681927710983</v>
+        <v>0.1229111979337543</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>903</v>
@@ -9920,19 +9920,19 @@
         <v>1050075</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>979516</v>
+        <v>985233</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1128817</v>
+        <v>1129974</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1463191252650021</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1364872918607156</v>
+        <v>0.1372840410628598</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1572911926463215</v>
+        <v>0.1574523795811869</v>
       </c>
     </row>
     <row r="33">
